--- a/documents/task_matrix.xlsx
+++ b/documents/task_matrix.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E45ABA-90C1-4B92-A573-6940715501EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6193B7B6-4353-454C-A1DD-F6C6F4A49CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947D3EFA-4BA6-4F4A-9629-6CA1AF42D174}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{947D3EFA-4BA6-4F4A-9629-6CA1AF42D174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,8 +37,345 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="69">
+  <si>
+    <t>task_type</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>is_recurring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>start_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end_date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>completed_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>stack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>boolean</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0~3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日のタスク入り</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>matches_recurring</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x =&lt; today</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>x &gt;= today</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>checkRule(today)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カラム名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>データ型</t>
+    <rPh sb="3" eb="4">
+      <t>ガタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>KEY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>備考</t>
+    <rPh sb="0" eb="2">
+      <t>ビコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>uuid</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRIMARY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>題名</t>
+    <rPh sb="0" eb="2">
+      <t>ダイメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>description</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>text</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>null</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>nullable</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ENUM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasks</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テーブル名</t>
+    <rPh sb="4" eb="5">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>task_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasks.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UNIQUE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>created_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CURRENT_TIMESTAMP()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>updated_at</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ON_UPDATE=CURRENT_TIMESTAMP()</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TaskLogs</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>recurring_id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recurring.id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tasks_Recurrings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Recurrings</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frequency</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DAILY,WEEKLY,MONTHLY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_of_week</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>day_of_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>week_of_month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0~6</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0~31</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0は月末</t>
+    <rPh sb="2" eb="4">
+      <t>ゲツマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adjust_for_holidays</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>adjust_diection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PREV,NEXT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参照元カラム</t>
+    <rPh sb="0" eb="3">
+      <t>サンショウモト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値定義</t>
+    <rPh sb="0" eb="1">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日の日付</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値(start)</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>初期値(end)</t>
+    <rPh sb="0" eb="3">
+      <t>ショキチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定式</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0-3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -54,7 +393,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -67,8 +406,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -76,18 +421,242 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -403,18 +972,855 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DE2463C-BA2A-463F-BEC8-A78876ECB4D8}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="24.625" style="5" customWidth="1"/>
+    <col min="5" max="9" width="24.625" style="6" customWidth="1"/>
+    <col min="10" max="10" width="24.625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="20.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D1" s="2"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="8"/>
+      <c r="D2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="20" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="14" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="13"/>
+      <c r="D4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D5" s="5">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D5036C-C6F9-4DB9-9272-ED721F044604}">
+  <dimension ref="A2:H32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="13.125" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="4" max="6" width="11.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="32"/>
+      <c r="B4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="32"/>
+      <c r="B5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="21"/>
+      <c r="E5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="21" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="26"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="32"/>
+      <c r="B6" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="21"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="32"/>
+      <c r="B7" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="21"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="32"/>
+      <c r="B8" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="21"/>
+      <c r="E8" s="31">
+        <f>DATE(1980,1,1)</f>
+        <v>29221</v>
+      </c>
+      <c r="F8" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="32"/>
+      <c r="B9" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="31">
+        <f>DATE(9999,12,31)</f>
+        <v>2958465</v>
+      </c>
+      <c r="F9" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="32"/>
+      <c r="B10" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="21"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="32"/>
+      <c r="B11" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="21"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="32"/>
+      <c r="B12" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="33"/>
+      <c r="B14" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="33"/>
+      <c r="B15" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="33"/>
+      <c r="B16" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="33"/>
+      <c r="B17" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="21"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="33"/>
+      <c r="B18" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="24" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="33"/>
+      <c r="B20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="33"/>
+      <c r="B21" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" s="32"/>
+      <c r="F21" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="33"/>
+      <c r="B22" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="21"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="33"/>
+      <c r="B23" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D23" s="21"/>
+      <c r="E23" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F23" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="32"/>
+      <c r="B25" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="32"/>
+      <c r="B26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="32"/>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="32"/>
+      <c r="B27" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D27" s="32"/>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" t="b">
+        <v>1</v>
+      </c>
+      <c r="G27" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="H27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="32"/>
+      <c r="B28" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D28" s="32"/>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" t="b">
+        <v>1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="32"/>
+      <c r="B29" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="32"/>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="32"/>
+      <c r="B30" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="32"/>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="b">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="32"/>
+      <c r="B31" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" s="21"/>
+      <c r="E31" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="21"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="32"/>
+      <c r="B32" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="F32" s="21" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D25:D30"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A24:A32"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3CBD31-4D69-4446-9B09-13CB0872C520}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="27">
+        <f ca="1">TODAY()</f>
+        <v>45184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="27">
+        <f>DATE(1980,1,1)</f>
+        <v>29221</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="27">
+        <f>DATE(9999,12,31)</f>
+        <v>2958465</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" s="36"/>
+      <c r="K5" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+      <c r="P5" s="34"/>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K6" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="N6" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P6" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="24"/>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:P5"/>
+    <mergeCell ref="B5:E5"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/documents/task_matrix.xlsx
+++ b/documents/task_matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B741558B-CF0C-4990-9349-5B958E521647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08518293-904F-440E-85CB-181431EE70A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{947D3EFA-4BA6-4F4A-9629-6CA1AF42D174}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{947D3EFA-4BA6-4F4A-9629-6CA1AF42D174}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブルパラメータ表" sheetId="2" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="120">
   <si>
     <t>task_type</t>
     <phoneticPr fontId="1"/>
@@ -767,69 +767,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>stock</t>
+    <t>パターン</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単体スケジュール</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
+    <t>result</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り返しスケジュール</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
+    <t>remining</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単体軽Todo</t>
-    <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ケイ</t>
-    </rPh>
+    <t>t</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>繰り返し軽Todo</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ケイ</t>
-    </rPh>
+    <t>f</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>単体重Todo</t>
+    <t>解説</t>
     <rPh sb="0" eb="2">
-      <t>タンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ジュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>繰り返し重Todo</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>オモ</t>
+      <t>カイセツ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1017,15 +977,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1036,6 +987,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2025,7 +1985,7 @@
       </c>
       <c r="C1" s="4">
         <f ca="1">TODAY()</f>
-        <v>45189</v>
+        <v>45190</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
@@ -2050,20 +2010,20 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="22" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="21"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
       <c r="N5" s="12" t="s">
@@ -2109,10 +2069,10 @@
       <c r="K6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="24"/>
       <c r="N6" s="5" t="s">
         <v>4</v>
       </c>
@@ -2132,14 +2092,14 @@
         <v>61</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="24"/>
       <c r="L7" s="11" t="s">
         <v>66</v>
       </c>
@@ -2165,18 +2125,18 @@
       <c r="E8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19" t="s">
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="24"/>
       <c r="N8" s="15" t="s">
         <v>96</v>
       </c>
@@ -4206,52 +4166,6 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F27:K27"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="F61:K61"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="F53:K53"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="F56:K56"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="F64:K64"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="F49:K49"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="F30:K30"/>
@@ -4266,6 +4180,52 @@
     <mergeCell ref="F15:K15"/>
     <mergeCell ref="F16:K16"/>
     <mergeCell ref="F17:K17"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="F49:K49"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="F61:K61"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="F56:K56"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F27:K27"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21514,8 +21474,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M757"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S164" sqref="S164"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:XFD50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -21667,7 +21627,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K66" si="0">IF(G3 &gt;= 0,
+        <f t="shared" ref="K3:K53" si="0">IF(G3 &gt;= 0,
 IF(AND(H3 &gt;= 0,E3&lt;&gt;2),
 IF(OR(
 AND(F3=TRUE,I3=TRUE,E3=0),
@@ -24269,7 +24229,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="50" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50">
         <f>Data1!E10</f>
         <v>0</v>
@@ -24381,7 +24341,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="52" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52">
         <f>Data1!E28</f>
         <v>0</v>
@@ -24437,7 +24397,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="53" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53">
         <f>Data1!E29</f>
         <v>0</v>
@@ -25029,7 +24989,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="62" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62">
         <f>Data1!E12</f>
         <v>0</v>
@@ -25163,7 +25123,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="64" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64">
         <f>Data1!E30</f>
         <v>0</v>
@@ -25230,7 +25190,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="65" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65">
         <f>Data1!E31</f>
         <v>0</v>
@@ -26637,7 +26597,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="86" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86">
         <f>Data1!E4</f>
         <v>0</v>
@@ -26771,7 +26731,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="88" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88">
         <f>Data1!E22</f>
         <v>0</v>
@@ -26838,7 +26798,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="89" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89">
         <f>Data1!E23</f>
         <v>0</v>
@@ -27441,7 +27401,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="98" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98">
         <f>Data1!E6</f>
         <v>0</v>
@@ -27575,7 +27535,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="100" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100">
         <f>Data1!E24</f>
         <v>0</v>
@@ -27642,7 +27602,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="101" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101">
         <f>Data1!E25</f>
         <v>0</v>
@@ -31461,7 +31421,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="158" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158">
         <f>Data1!E658</f>
         <v>1</v>
@@ -31595,7 +31555,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="160" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160">
         <f>Data1!E676</f>
         <v>1</v>
@@ -31662,7 +31622,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="161" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161">
         <f>Data1!E677</f>
         <v>1</v>
@@ -32265,7 +32225,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="170" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170">
         <f>Data1!E660</f>
         <v>1</v>
@@ -32399,7 +32359,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="172" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172">
         <f>Data1!E678</f>
         <v>1</v>
@@ -32466,7 +32426,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="173" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173">
         <f>Data1!E679</f>
         <v>1</v>
@@ -33873,7 +33833,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="194" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194">
         <f>Data1!E652</f>
         <v>1</v>
@@ -34007,7 +33967,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="196" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196">
         <f>Data1!E670</f>
         <v>1</v>
@@ -34074,7 +34034,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="197" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197">
         <f>Data1!E671</f>
         <v>1</v>
@@ -34677,7 +34637,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="206" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206">
         <f>Data1!E654</f>
         <v>1</v>
@@ -34811,7 +34771,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="208" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208">
         <f>Data1!E672</f>
         <v>1</v>
@@ -34878,7 +34838,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="209" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209">
         <f>Data1!E673</f>
         <v>1</v>
@@ -38697,7 +38657,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="266" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266">
         <f>Data1!E226</f>
         <v>1</v>
@@ -38831,7 +38791,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="268" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268">
         <f>Data1!E244</f>
         <v>1</v>
@@ -38898,7 +38858,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="269" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269">
         <f>Data1!E245</f>
         <v>1</v>
@@ -39501,7 +39461,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="278" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278">
         <f>Data1!E228</f>
         <v>1</v>
@@ -39635,7 +39595,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="280" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280">
         <f>Data1!E246</f>
         <v>1</v>
@@ -39702,7 +39662,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="281" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281">
         <f>Data1!E247</f>
         <v>1</v>
@@ -41109,7 +41069,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="302" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302">
         <f>Data1!E220</f>
         <v>1</v>
@@ -41243,7 +41203,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="304" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304">
         <f>Data1!E238</f>
         <v>1</v>
@@ -41310,7 +41270,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="305" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305">
         <f>Data1!E239</f>
         <v>1</v>
@@ -41913,7 +41873,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="314" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314">
         <f>Data1!E222</f>
         <v>1</v>
@@ -42047,7 +42007,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="316" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316">
         <f>Data1!E240</f>
         <v>1</v>
@@ -42114,7 +42074,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="317" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317">
         <f>Data1!E241</f>
         <v>1</v>
@@ -45933,7 +45893,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="374" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374">
         <f>Data1!E442</f>
         <v>1</v>
@@ -46067,7 +46027,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="376" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376">
         <f>Data1!E460</f>
         <v>1</v>
@@ -46134,7 +46094,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="377" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377">
         <f>Data1!E461</f>
         <v>1</v>
@@ -46737,7 +46697,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="386" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386">
         <f>Data1!E444</f>
         <v>1</v>
@@ -46871,7 +46831,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="388" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388">
         <f>Data1!E462</f>
         <v>1</v>
@@ -46938,7 +46898,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="389" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389">
         <f>Data1!E463</f>
         <v>1</v>
@@ -48345,7 +48305,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="410" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410">
         <f>Data1!E436</f>
         <v>1</v>
@@ -48479,7 +48439,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="412" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412">
         <f>Data1!E454</f>
         <v>1</v>
@@ -48546,7 +48506,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="413" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413">
         <f>Data1!E455</f>
         <v>1</v>
@@ -49149,7 +49109,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="422" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A422">
         <f>Data1!E438</f>
         <v>1</v>
@@ -49283,7 +49243,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="424" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A424">
         <f>Data1!E456</f>
         <v>1</v>
@@ -49350,7 +49310,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="425" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425">
         <f>Data1!E457</f>
         <v>1</v>
@@ -53169,7 +53129,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="482" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A482">
         <f>Data1!E550</f>
         <v>1</v>
@@ -53303,7 +53263,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="484" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A484">
         <f>Data1!E568</f>
         <v>1</v>
@@ -53370,7 +53330,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="485" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A485">
         <f>Data1!E569</f>
         <v>1</v>
@@ -53973,7 +53933,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="494" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A494">
         <f>Data1!E552</f>
         <v>1</v>
@@ -54107,7 +54067,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="496" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A496">
         <f>Data1!E570</f>
         <v>1</v>
@@ -54174,7 +54134,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="497" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A497">
         <f>Data1!E571</f>
         <v>1</v>
@@ -55581,7 +55541,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="518" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A518">
         <f>Data1!E544</f>
         <v>1</v>
@@ -55715,7 +55675,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="520" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A520">
         <f>Data1!E562</f>
         <v>1</v>
@@ -55782,7 +55742,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="521" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A521">
         <f>Data1!E563</f>
         <v>1</v>
@@ -56385,7 +56345,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="530" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A530">
         <f>Data1!E546</f>
         <v>1</v>
@@ -56519,7 +56479,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="532" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A532">
         <f>Data1!E564</f>
         <v>1</v>
@@ -56586,7 +56546,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="533" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A533">
         <f>Data1!E565</f>
         <v>1</v>
@@ -60405,7 +60365,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="590" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A590">
         <f>Data1!E118</f>
         <v>1</v>
@@ -60539,7 +60499,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="592" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A592">
         <f>Data1!E136</f>
         <v>1</v>
@@ -60606,7 +60566,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="593" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A593">
         <f>Data1!E137</f>
         <v>1</v>
@@ -61209,7 +61169,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="602" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A602">
         <f>Data1!E120</f>
         <v>1</v>
@@ -61343,7 +61303,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="604" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A604">
         <f>Data1!E138</f>
         <v>1</v>
@@ -61410,7 +61370,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="605" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A605">
         <f>Data1!E139</f>
         <v>1</v>
@@ -62817,7 +62777,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="626" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A626">
         <f>Data1!E112</f>
         <v>1</v>
@@ -62951,7 +62911,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="628" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A628">
         <f>Data1!E130</f>
         <v>1</v>
@@ -63018,7 +62978,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="629" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A629">
         <f>Data1!E131</f>
         <v>1</v>
@@ -63621,7 +63581,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="638" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A638">
         <f>Data1!E114</f>
         <v>1</v>
@@ -63755,7 +63715,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="640" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A640">
         <f>Data1!E132</f>
         <v>1</v>
@@ -63822,7 +63782,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="641" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A641">
         <f>Data1!E133</f>
         <v>1</v>
@@ -67641,7 +67601,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="698" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A698">
         <f>Data1!E334</f>
         <v>1</v>
@@ -67775,7 +67735,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="700" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A700">
         <f>Data1!E352</f>
         <v>1</v>
@@ -67842,7 +67802,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="701" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A701">
         <f>Data1!E353</f>
         <v>1</v>
@@ -68445,7 +68405,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="710" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A710">
         <f>Data1!E336</f>
         <v>1</v>
@@ -68579,7 +68539,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="712" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A712">
         <f>Data1!E354</f>
         <v>1</v>
@@ -68646,7 +68606,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="713" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A713">
         <f>Data1!E355</f>
         <v>1</v>
@@ -70053,7 +70013,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="734" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A734">
         <f>Data1!E328</f>
         <v>1</v>
@@ -70187,7 +70147,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="736" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A736">
         <f>Data1!E346</f>
         <v>1</v>
@@ -70254,7 +70214,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="737" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A737">
         <f>Data1!E347</f>
         <v>1</v>
@@ -70857,7 +70817,7 @@
         <v>単発ノルマ</v>
       </c>
     </row>
-    <row r="746" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A746">
         <f>Data1!E330</f>
         <v>1</v>
@@ -70991,7 +70951,7 @@
         <v>反復スケジュール</v>
       </c>
     </row>
-    <row r="748" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A748">
         <f>Data1!E348</f>
         <v>1</v>
@@ -71058,7 +71018,7 @@
         <v>単発スケジュール</v>
       </c>
     </row>
-    <row r="749" spans="1:13" hidden="1" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A749">
         <f>Data1!E349</f>
         <v>1</v>
@@ -71434,7 +71394,7 @@
         <v>1</v>
       </c>
       <c r="K754" t="str">
-        <f t="shared" ref="K707:K757" si="1">IF(G754 &gt;= 0,
+        <f t="shared" ref="K754:K757" si="1">IF(G754 &gt;= 0,
 IF(AND(H754 &gt;= 0,E754&lt;&gt;2),
 IF(OR(
 AND(F754=TRUE,I754=TRUE,E754=0),
@@ -71635,13 +71595,7 @@
         <filter val="表示対象"/>
       </filters>
     </filterColumn>
-    <filterColumn colId="12">
-      <filters>
-        <filter val="単発Todo"/>
-        <filter val="反復Todo"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:N753">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A54:M753">
       <sortCondition ref="M1:M757"/>
     </sortState>
   </autoFilter>
@@ -71652,10 +71606,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66B9EAAA-0DFB-4B47-B705-F955BEBEE7A1}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -71663,102 +71617,47 @@
     <col min="1" max="1" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="D1" t="s">
         <v>102</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
-      </c>
-      <c r="G1" t="s">
-        <v>113</v>
-      </c>
-      <c r="H1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" t="s">
         <v>115</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="J1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="C2" t="s">
         <v>118</v>
       </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>119</v>
-      </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="b">
-        <f>TRUE()</f>
-        <v>1</v>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/documents/task_matrix.xlsx
+++ b/documents/task_matrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\project\portfolio\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA4C42D-E480-4826-8B7C-94662673730C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A5B2D-7601-45F8-94F1-F85B4588817E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{947D3EFA-4BA6-4F4A-9629-6CA1AF42D174}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{947D3EFA-4BA6-4F4A-9629-6CA1AF42D174}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -780,7 +780,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -793,15 +802,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1191,7 +1191,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB3CBD31-4D69-4446-9B09-13CB0872C520}">
   <dimension ref="A1:X65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -1215,7 +1215,7 @@
       </c>
       <c r="C1" s="2">
         <f ca="1">TODAY()</f>
-        <v>45194</v>
+        <v>45203</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
@@ -1240,20 +1240,20 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="15" t="s">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="17"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="20"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="9" t="s">
@@ -1299,10 +1299,10 @@
       <c r="K6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="M6" s="20"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1322,14 +1322,14 @@
         <v>28</v>
       </c>
       <c r="E7" s="3"/>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="20"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="8" t="s">
         <v>33</v>
       </c>
@@ -1355,18 +1355,18 @@
       <c r="E8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="19" t="s">
+      <c r="F8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="19" t="s">
+      <c r="G8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="M8" s="20"/>
+      <c r="M8" s="15"/>
       <c r="N8" s="12" t="s">
         <v>63</v>
       </c>
@@ -1406,12 +1406,12 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
       <c r="Q10" t="s">
@@ -1437,12 +1437,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
       <c r="Q11" t="s">
@@ -1472,12 +1472,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
       <c r="L12" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -1510,12 +1510,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
       <c r="L13" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1547,12 +1547,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
       <c r="L14" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1584,15 +1584,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F15" s="14" t="b">
+      <c r="F15" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
       <c r="L15" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -1625,15 +1625,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F16" s="14" t="b">
+      <c r="F16" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
       <c r="L16" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1668,15 +1668,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F17" s="14" t="b">
+      <c r="F17" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
       <c r="L17" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1715,15 +1715,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F18" s="14" t="b">
+      <c r="F18" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
       <c r="L18" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1762,15 +1762,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F19" s="14" t="b">
+      <c r="F19" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
       <c r="L19" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -1803,15 +1803,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F20" s="14" t="b">
+      <c r="F20" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="16"/>
       <c r="L20" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1847,15 +1847,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F21" s="14" t="b">
+      <c r="F21" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
+      <c r="K21" s="16"/>
       <c r="L21" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1894,15 +1894,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F22" s="14" t="b">
+      <c r="F22" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
       <c r="L22" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -1937,12 +1937,12 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="Q24" t="s">
@@ -1968,12 +1968,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="Q25" t="s">
@@ -2003,12 +2003,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
       <c r="L26" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2041,12 +2041,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="16"/>
       <c r="L27" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2086,12 +2086,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="16"/>
+      <c r="H28" s="16"/>
+      <c r="I28" s="16"/>
+      <c r="J28" s="16"/>
+      <c r="K28" s="16"/>
       <c r="L28" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2128,15 +2128,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F29" s="14" t="b">
+      <c r="F29" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="16"/>
       <c r="L29" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2172,15 +2172,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F30" s="14" t="b">
+      <c r="F30" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
+      <c r="G30" s="16"/>
+      <c r="H30" s="16"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="16"/>
+      <c r="K30" s="16"/>
       <c r="L30" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2220,15 +2220,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F31" s="14" t="b">
+      <c r="F31" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="16"/>
+      <c r="J31" s="16"/>
+      <c r="K31" s="16"/>
       <c r="L31" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2271,15 +2271,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F32" s="14" t="b">
+      <c r="F32" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
+      <c r="G32" s="16"/>
+      <c r="H32" s="16"/>
+      <c r="I32" s="16"/>
+      <c r="J32" s="16"/>
+      <c r="K32" s="16"/>
       <c r="L32" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2319,15 +2319,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F33" s="14" t="b">
+      <c r="F33" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="16"/>
+      <c r="K33" s="16"/>
       <c r="L33" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2360,15 +2360,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F34" s="14" t="b">
+      <c r="F34" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G34" s="14"/>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
+      <c r="K34" s="16"/>
       <c r="L34" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2405,15 +2405,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F35" s="14" t="b">
+      <c r="F35" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G35" s="14"/>
-      <c r="H35" s="14"/>
-      <c r="I35" s="14"/>
-      <c r="J35" s="14"/>
-      <c r="K35" s="14"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="16"/>
+      <c r="K35" s="16"/>
       <c r="L35" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2453,15 +2453,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F36" s="14" t="b">
+      <c r="F36" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G36" s="14"/>
-      <c r="H36" s="14"/>
-      <c r="I36" s="14"/>
-      <c r="J36" s="14"/>
-      <c r="K36" s="14"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="16"/>
+      <c r="K36" s="16"/>
       <c r="L36" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2492,12 +2492,12 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="G38" s="14"/>
-      <c r="H38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14"/>
-      <c r="K38" s="14"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="16"/>
+      <c r="K38" s="16"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
       <c r="Q38" t="s">
@@ -2527,12 +2527,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F39" s="14"/>
-      <c r="G39" s="14"/>
-      <c r="H39" s="14"/>
-      <c r="I39" s="14"/>
-      <c r="J39" s="14"/>
-      <c r="K39" s="14"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="16"/>
+      <c r="K39" s="16"/>
       <c r="L39" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2554,12 +2554,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F40" s="14"/>
-      <c r="G40" s="14"/>
-      <c r="H40" s="14"/>
-      <c r="I40" s="14"/>
-      <c r="J40" s="14"/>
-      <c r="K40" s="14"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="16"/>
+      <c r="K40" s="16"/>
       <c r="L40" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2587,12 +2587,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="14"/>
-      <c r="H41" s="14"/>
-      <c r="I41" s="14"/>
-      <c r="J41" s="14"/>
-      <c r="K41" s="14"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="16"/>
+      <c r="K41" s="16"/>
       <c r="L41" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2618,15 +2618,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F42" s="14" t="b">
+      <c r="F42" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G42" s="14"/>
-      <c r="H42" s="14"/>
-      <c r="I42" s="14"/>
-      <c r="J42" s="14"/>
-      <c r="K42" s="14"/>
+      <c r="G42" s="16"/>
+      <c r="H42" s="16"/>
+      <c r="I42" s="16"/>
+      <c r="J42" s="16"/>
+      <c r="K42" s="16"/>
       <c r="L42" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2651,15 +2651,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F43" s="14" t="b">
+      <c r="F43" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G43" s="14"/>
-      <c r="H43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14"/>
-      <c r="K43" s="14"/>
+      <c r="G43" s="16"/>
+      <c r="H43" s="16"/>
+      <c r="I43" s="16"/>
+      <c r="J43" s="16"/>
+      <c r="K43" s="16"/>
       <c r="L43" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2691,15 +2691,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F44" s="14" t="b">
+      <c r="F44" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G44" s="14"/>
-      <c r="H44" s="14"/>
-      <c r="I44" s="14"/>
-      <c r="J44" s="14"/>
-      <c r="K44" s="14"/>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="16"/>
+      <c r="J44" s="16"/>
+      <c r="K44" s="16"/>
       <c r="L44" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2731,15 +2731,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F45" s="14" t="b">
+      <c r="F45" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G45" s="14"/>
-      <c r="H45" s="14"/>
-      <c r="I45" s="14"/>
-      <c r="J45" s="14"/>
-      <c r="K45" s="14"/>
+      <c r="G45" s="16"/>
+      <c r="H45" s="16"/>
+      <c r="I45" s="16"/>
+      <c r="J45" s="16"/>
+      <c r="K45" s="16"/>
       <c r="L45" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2768,15 +2768,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F46" s="14" t="b">
+      <c r="F46" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G46" s="14"/>
-      <c r="H46" s="14"/>
-      <c r="I46" s="14"/>
-      <c r="J46" s="14"/>
-      <c r="K46" s="14"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16"/>
+      <c r="I46" s="16"/>
+      <c r="J46" s="16"/>
+      <c r="K46" s="16"/>
       <c r="L46" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2805,15 +2805,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F47" s="14" t="b">
+      <c r="F47" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G47" s="14"/>
-      <c r="H47" s="14"/>
-      <c r="I47" s="14"/>
-      <c r="J47" s="14"/>
-      <c r="K47" s="14"/>
+      <c r="G47" s="16"/>
+      <c r="H47" s="16"/>
+      <c r="I47" s="16"/>
+      <c r="J47" s="16"/>
+      <c r="K47" s="16"/>
       <c r="L47" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -2835,15 +2835,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F48" s="14" t="b">
+      <c r="F48" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G48" s="14"/>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
-      <c r="J48" s="14"/>
-      <c r="K48" s="14"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
       <c r="L48" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2875,15 +2875,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F49" s="14" t="b">
+      <c r="F49" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G49" s="14"/>
-      <c r="H49" s="14"/>
-      <c r="I49" s="14"/>
-      <c r="J49" s="14"/>
-      <c r="K49" s="14"/>
+      <c r="G49" s="16"/>
+      <c r="H49" s="16"/>
+      <c r="I49" s="16"/>
+      <c r="J49" s="16"/>
+      <c r="K49" s="16"/>
       <c r="L49" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2915,15 +2915,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F50" s="14" t="b">
+      <c r="F50" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G50" s="14"/>
-      <c r="H50" s="14"/>
-      <c r="I50" s="14"/>
-      <c r="J50" s="14"/>
-      <c r="K50" s="14"/>
+      <c r="G50" s="16"/>
+      <c r="H50" s="16"/>
+      <c r="I50" s="16"/>
+      <c r="J50" s="16"/>
+      <c r="K50" s="16"/>
       <c r="L50" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2952,15 +2952,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F51" s="14" t="b">
+      <c r="F51" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="14"/>
-      <c r="J51" s="14"/>
-      <c r="K51" s="14"/>
+      <c r="G51" s="16"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+      <c r="K51" s="16"/>
       <c r="L51" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2976,15 +2976,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F52" s="14" t="b">
+      <c r="F52" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G52" s="14"/>
-      <c r="H52" s="14"/>
-      <c r="I52" s="14"/>
-      <c r="J52" s="14"/>
-      <c r="K52" s="14"/>
+      <c r="G52" s="16"/>
+      <c r="H52" s="16"/>
+      <c r="I52" s="16"/>
+      <c r="J52" s="16"/>
+      <c r="K52" s="16"/>
       <c r="L52" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -2999,22 +2999,22 @@
       </c>
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="F53" s="14"/>
-      <c r="G53" s="14"/>
-      <c r="H53" s="14"/>
-      <c r="I53" s="14"/>
-      <c r="J53" s="14"/>
-      <c r="K53" s="14"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="16"/>
+      <c r="H53" s="16"/>
+      <c r="I53" s="16"/>
+      <c r="J53" s="16"/>
+      <c r="K53" s="16"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="F54" s="14"/>
-      <c r="G54" s="14"/>
-      <c r="H54" s="14"/>
-      <c r="I54" s="14"/>
-      <c r="J54" s="14"/>
-      <c r="K54" s="14"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16"/>
+      <c r="H54" s="16"/>
+      <c r="I54" s="16"/>
+      <c r="J54" s="16"/>
+      <c r="K54" s="16"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
     </row>
@@ -3034,12 +3034,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F55" s="14"/>
-      <c r="G55" s="14"/>
-      <c r="H55" s="14"/>
-      <c r="I55" s="14"/>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16"/>
+      <c r="I55" s="16"/>
+      <c r="J55" s="16"/>
+      <c r="K55" s="16"/>
       <c r="L55" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3062,12 +3062,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F56" s="14"/>
-      <c r="G56" s="14"/>
-      <c r="H56" s="14"/>
-      <c r="I56" s="14"/>
-      <c r="J56" s="14"/>
-      <c r="K56" s="14"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="16"/>
+      <c r="H56" s="16"/>
+      <c r="I56" s="16"/>
+      <c r="J56" s="16"/>
+      <c r="K56" s="16"/>
       <c r="L56" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3094,12 +3094,12 @@
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F57" s="14"/>
-      <c r="G57" s="14"/>
-      <c r="H57" s="14"/>
-      <c r="I57" s="14"/>
-      <c r="J57" s="14"/>
-      <c r="K57" s="14"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="16"/>
+      <c r="H57" s="16"/>
+      <c r="I57" s="16"/>
+      <c r="J57" s="16"/>
+      <c r="K57" s="16"/>
       <c r="L57" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3126,15 +3126,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F58" s="14" t="b">
+      <c r="F58" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G58" s="14"/>
-      <c r="H58" s="14"/>
-      <c r="I58" s="14"/>
-      <c r="J58" s="14"/>
-      <c r="K58" s="14"/>
+      <c r="G58" s="16"/>
+      <c r="H58" s="16"/>
+      <c r="I58" s="16"/>
+      <c r="J58" s="16"/>
+      <c r="K58" s="16"/>
       <c r="L58" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3157,15 +3157,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F59" s="14" t="b">
+      <c r="F59" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G59" s="14"/>
-      <c r="H59" s="14"/>
-      <c r="I59" s="14"/>
-      <c r="J59" s="14"/>
-      <c r="K59" s="14"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
       <c r="L59" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3192,15 +3192,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F60" s="14" t="b">
+      <c r="F60" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G60" s="14"/>
-      <c r="H60" s="14"/>
-      <c r="I60" s="14"/>
-      <c r="J60" s="14"/>
-      <c r="K60" s="14"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
       <c r="L60" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3230,15 +3230,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F61" s="14" t="b">
+      <c r="F61" s="16" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
-      <c r="G61" s="14"/>
-      <c r="H61" s="14"/>
-      <c r="I61" s="14"/>
-      <c r="J61" s="14"/>
-      <c r="K61" s="14"/>
+      <c r="G61" s="16"/>
+      <c r="H61" s="16"/>
+      <c r="I61" s="16"/>
+      <c r="J61" s="16"/>
+      <c r="K61" s="16"/>
       <c r="L61" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3268,15 +3268,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F62" s="14" t="b">
+      <c r="F62" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G62" s="14"/>
-      <c r="H62" s="14"/>
-      <c r="I62" s="14"/>
-      <c r="J62" s="14"/>
-      <c r="K62" s="14"/>
+      <c r="G62" s="16"/>
+      <c r="H62" s="16"/>
+      <c r="I62" s="16"/>
+      <c r="J62" s="16"/>
+      <c r="K62" s="16"/>
       <c r="L62" s="1" t="b">
         <f>FALSE()</f>
         <v>0</v>
@@ -3299,15 +3299,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F63" s="14" t="b">
+      <c r="F63" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G63" s="14"/>
-      <c r="H63" s="14"/>
-      <c r="I63" s="14"/>
-      <c r="J63" s="14"/>
-      <c r="K63" s="14"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="16"/>
       <c r="L63" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3334,15 +3334,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F64" s="14" t="b">
+      <c r="F64" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G64" s="14"/>
-      <c r="H64" s="14"/>
-      <c r="I64" s="14"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="14"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="16"/>
+      <c r="K64" s="16"/>
       <c r="L64" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3372,15 +3372,15 @@
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="F65" s="14" t="b">
+      <c r="F65" s="16" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G65" s="14"/>
-      <c r="H65" s="14"/>
-      <c r="I65" s="14"/>
-      <c r="J65" s="14"/>
-      <c r="K65" s="14"/>
+      <c r="G65" s="16"/>
+      <c r="H65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+      <c r="K65" s="16"/>
       <c r="L65" s="1" t="b">
         <f>TRUE()</f>
         <v>1</v>
@@ -3396,6 +3396,50 @@
     </row>
   </sheetData>
   <mergeCells count="60">
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F33:K33"/>
+    <mergeCell ref="F34:K34"/>
+    <mergeCell ref="F5:K5"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="F24:K24"/>
+    <mergeCell ref="F25:K25"/>
+    <mergeCell ref="F26:K26"/>
+    <mergeCell ref="F18:K18"/>
+    <mergeCell ref="F19:K19"/>
+    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="F36:K36"/>
+    <mergeCell ref="F28:K28"/>
+    <mergeCell ref="F29:K29"/>
+    <mergeCell ref="F32:K32"/>
+    <mergeCell ref="F65:K65"/>
+    <mergeCell ref="F51:K51"/>
+    <mergeCell ref="F58:K58"/>
+    <mergeCell ref="F59:K59"/>
+    <mergeCell ref="F60:K60"/>
+    <mergeCell ref="F61:K61"/>
+    <mergeCell ref="F62:K62"/>
+    <mergeCell ref="F52:K52"/>
+    <mergeCell ref="F53:K53"/>
+    <mergeCell ref="F55:K55"/>
+    <mergeCell ref="F56:K56"/>
+    <mergeCell ref="F57:K57"/>
+    <mergeCell ref="F54:K54"/>
+    <mergeCell ref="F63:K63"/>
+    <mergeCell ref="F64:K64"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="F50:K50"/>
+    <mergeCell ref="F43:K43"/>
+    <mergeCell ref="F45:K45"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="F39:K39"/>
+    <mergeCell ref="F41:K41"/>
+    <mergeCell ref="F46:K46"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="F40:K40"/>
+    <mergeCell ref="F42:K42"/>
+    <mergeCell ref="F44:K44"/>
+    <mergeCell ref="F49:K49"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="L6:M6"/>
     <mergeCell ref="F30:K30"/>
@@ -3412,50 +3456,6 @@
     <mergeCell ref="F17:K17"/>
     <mergeCell ref="F27:K27"/>
     <mergeCell ref="F21:K21"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="F50:K50"/>
-    <mergeCell ref="F43:K43"/>
-    <mergeCell ref="F45:K45"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="F39:K39"/>
-    <mergeCell ref="F41:K41"/>
-    <mergeCell ref="F46:K46"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="F40:K40"/>
-    <mergeCell ref="F42:K42"/>
-    <mergeCell ref="F44:K44"/>
-    <mergeCell ref="F49:K49"/>
-    <mergeCell ref="F65:K65"/>
-    <mergeCell ref="F51:K51"/>
-    <mergeCell ref="F58:K58"/>
-    <mergeCell ref="F59:K59"/>
-    <mergeCell ref="F60:K60"/>
-    <mergeCell ref="F61:K61"/>
-    <mergeCell ref="F62:K62"/>
-    <mergeCell ref="F52:K52"/>
-    <mergeCell ref="F53:K53"/>
-    <mergeCell ref="F55:K55"/>
-    <mergeCell ref="F56:K56"/>
-    <mergeCell ref="F57:K57"/>
-    <mergeCell ref="F54:K54"/>
-    <mergeCell ref="F63:K63"/>
-    <mergeCell ref="F64:K64"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="F36:K36"/>
-    <mergeCell ref="F28:K28"/>
-    <mergeCell ref="F29:K29"/>
-    <mergeCell ref="F32:K32"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F33:K33"/>
-    <mergeCell ref="F34:K34"/>
-    <mergeCell ref="F5:K5"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="F24:K24"/>
-    <mergeCell ref="F25:K25"/>
-    <mergeCell ref="F26:K26"/>
-    <mergeCell ref="F18:K18"/>
-    <mergeCell ref="F19:K19"/>
-    <mergeCell ref="F20:K20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3466,7 +3466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF9872FD-7FB1-4F10-A5F9-0E648FBFBD3F}">
   <dimension ref="A1:G757"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
